--- a/biology/Botanique/Gamétange/Gamétange.xlsx
+++ b/biology/Botanique/Gamétange/Gamétange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gam%C3%A9tange</t>
+          <t>Gamétange</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Un gamétange est une structure végétale qui produit et qui contient des gamètes. Les gamétanges se rencontrent uniquement chez les Archégoniates (chez les fougères, les mousses, les angiospermes et les gymnospermes).
 Le gamétange est constitué d'une ou plusieurs assises cellulaires stériles (tissu stérile) protégeant les cellules mères des spores (tissu fertile).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gam%C3%A9tange</t>
+          <t>Gamétange</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Problème lié à la traduction du terme anglais gametangium</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme anglais gametangium regroupe à la fois les termes français gamétanges et les gamétocystes.
  Portail de la botanique                     </t>
